--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-534408.4963103062</v>
+        <v>-536962.420437057</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>323.0632139318035</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>301.7774191013388</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>48.66679095281876</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.4417104037639</v>
+        <v>130.2804306019406</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>378.8982392748046</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>198.2150714740757</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>48.80744383115324</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>201.3228726519647</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>244.800203970277</v>
+        <v>294.5755274368618</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>69.9176400685913</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>189.0470307061604</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.0429659719017</v>
+        <v>0.012762354735504</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922697</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>140.2695301648953</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922677</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,10 +2059,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>115.8627380890773</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>220.9731342426603</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>53.08838020946239</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>141.4641157700689</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187855</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261733</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261733</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.332751740275</v>
+        <v>735.8389638937471</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>735.8389638937471</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>377.5732652869966</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2003.932591804396</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>2003.932591804396</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X2" t="n">
-        <v>2003.932591804396</v>
+        <v>1171.597178657686</v>
       </c>
       <c r="Y2" t="n">
-        <v>2003.932591804396</v>
+        <v>1122.438803957869</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1154.038517360656</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2238.100841080695</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1547.560170126579</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>1378.623987198672</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>1378.623987198672</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>1378.623987198672</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>1231.734039700762</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>1231.734039700762</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564268</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936613</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075598</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>2263.127174075598</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>2263.127174075598</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V4" t="n">
-        <v>2008.442685869711</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="W4" t="n">
-        <v>1729.208634956819</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="X4" t="n">
-        <v>1729.208634956819</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="Y4" t="n">
-        <v>1729.208634956819</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1210.836060705129</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,10 +4562,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3015.097909223057</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2684.035021879487</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2331.266366609372</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2331.266366609372</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y5" t="n">
-        <v>1941.127034633561</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>844.5803025616257</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>675.6441196337188</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4768,7 +4768,7 @@
         <v>1065.372881705156</v>
       </c>
       <c r="Y7" t="n">
-        <v>844.5803025616257</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1795.666214589423</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C8" t="n">
-        <v>1426.703697649011</v>
+        <v>1137.401303008949</v>
       </c>
       <c r="D8" t="n">
-        <v>1068.437999042261</v>
+        <v>779.1356044021989</v>
       </c>
       <c r="E8" t="n">
-        <v>1068.437999042261</v>
+        <v>779.1356044021989</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653545</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y8" t="n">
-        <v>2182.266054653545</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>772.5608581015648</v>
+        <v>944.7237329438971</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
         <v>477.7578170212613</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V10" t="n">
-        <v>1480.924175709432</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W10" t="n">
-        <v>1191.507005672471</v>
+        <v>1575.154327815684</v>
       </c>
       <c r="X10" t="n">
-        <v>963.5174547744541</v>
+        <v>1347.164776917667</v>
       </c>
       <c r="Y10" t="n">
-        <v>772.5608581015648</v>
+        <v>1126.372197774137</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,49 +5033,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5191,58 +5191,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5288,40 +5288,40 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797186</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745237</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>847.6442739835339</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>847.6442739835339</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>697.5276345711982</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888051</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908947</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1029.292738813774</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>718.55072391671</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C19" t="n">
-        <v>549.6145409888031</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888031</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888031</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908927</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1638.398488825458</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1348.981318788497</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X19" t="n">
-        <v>1120.99176789048</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y19" t="n">
-        <v>900.1991887469497</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="20">
@@ -5735,28 +5735,28 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5777,10 +5777,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5905,16 +5905,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2393.338457106056</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="23">
@@ -5981,10 +5981,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,37 +6002,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,25 +6124,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908939</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="29">
@@ -6452,37 +6452,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,10 +6725,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7166,19 +7166,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7190,16 +7190,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150023</v>
@@ -7318,7 +7318,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>73.6605958099978</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>186.4490126143853</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>3.349832573498996</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>58.8671561404583</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>25.9748393687961</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28.78901421003559</v>
+        <v>179.8192178272001</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272922</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194223</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>78.3151231871995</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>136.2749052347507</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>164.3170701178259</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>24.63391537253446</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>84.24553961896822</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>229059.6437758986</v>
       </c>
       <c r="C2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="D2" t="n">
         <v>266838.5752058921</v>
@@ -26326,10 +26326,10 @@
         <v>262322.6448992519</v>
       </c>
       <c r="G2" t="n">
+        <v>262322.644899252</v>
+      </c>
+      <c r="H2" t="n">
         <v>262322.6448992519</v>
-      </c>
-      <c r="H2" t="n">
-        <v>262322.644899252</v>
       </c>
       <c r="I2" t="n">
         <v>262322.644899252</v>
@@ -26338,19 +26338,19 @@
         <v>262322.644899252</v>
       </c>
       <c r="K2" t="n">
+        <v>262322.644899252</v>
+      </c>
+      <c r="L2" t="n">
         <v>262322.6448992519</v>
-      </c>
-      <c r="L2" t="n">
-        <v>262322.644899252</v>
       </c>
       <c r="M2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="N2" t="n">
-        <v>266838.5752058924</v>
+        <v>266838.5752058925</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058925</v>
       </c>
       <c r="P2" t="n">
         <v>266838.5752058923</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>49110.09270605445</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71582.8097598734</v>
+        <v>71582.80975987327</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.1790931202</v>
       </c>
       <c r="D4" t="n">
         <v>89134.17909312015</v>
@@ -26433,28 +26433,28 @@
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
+        <v>9947.144321768938</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9947.144321768952</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9947.144321768923</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9947.144321768914</v>
+      </c>
+      <c r="L4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9947.144321768897</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9947.144321768883</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9947.144321768899</v>
-      </c>
-      <c r="L4" t="n">
-        <v>9947.144321768948</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="N4" t="n">
-        <v>17938.00358486239</v>
+        <v>17938.00358486237</v>
       </c>
       <c r="O4" t="n">
-        <v>17938.00358486236</v>
+        <v>17938.00358486242</v>
       </c>
       <c r="P4" t="n">
         <v>17938.00358486237</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1050212.721999739</v>
+        <v>-1050503.329164585</v>
       </c>
       <c r="C6" t="n">
-        <v>-133668.2860607273</v>
+        <v>-133668.2860607271</v>
       </c>
       <c r="D6" t="n">
         <v>69770.45555137869</v>
       </c>
       <c r="E6" t="n">
-        <v>-174159.4910537791</v>
+        <v>-174194.2289792151</v>
       </c>
       <c r="F6" t="n">
-        <v>151252.9707535759</v>
+        <v>151218.2328281402</v>
       </c>
       <c r="G6" t="n">
-        <v>151252.9707535758</v>
+        <v>151218.2328281404</v>
       </c>
       <c r="H6" t="n">
-        <v>151252.970753576</v>
+        <v>151218.2328281403</v>
       </c>
       <c r="I6" t="n">
-        <v>151252.970753576</v>
+        <v>151218.2328281401</v>
       </c>
       <c r="J6" t="n">
-        <v>-16352.20705640648</v>
+        <v>-16386.94498184236</v>
       </c>
       <c r="K6" t="n">
-        <v>102142.8780475215</v>
+        <v>102108.1401220858</v>
       </c>
       <c r="L6" t="n">
-        <v>151252.9707535759</v>
+        <v>151218.2328281402</v>
       </c>
       <c r="M6" t="n">
-        <v>66197.9428180642</v>
+        <v>66163.20489262851</v>
       </c>
       <c r="N6" t="n">
         <v>126308.7377734829</v>
       </c>
       <c r="O6" t="n">
-        <v>145736.4557671146</v>
+        <v>145736.4557671147</v>
       </c>
       <c r="P6" t="n">
-        <v>145736.4557671146</v>
+        <v>145736.4557671145</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>190.8166233022538</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022538</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022538</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>351.333209047184</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>337.5711477032348</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>10.08128793282714</v>
+        <v>156.2425677346504</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,23 +27613,23 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>3.032130797457228</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>52.78010048482631</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>99.80802918705912</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>17.26178070013009</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>162.0758417714345</v>
+        <v>112.3005183048497</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>216.6053582679997</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>29.53762264593439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968498</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>279.2419622547056</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832328</v>
+        <v>359.7096985496639</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32728,7 +32728,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32789,13 +32789,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,10 +33275,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>440.5919280920382</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>302.9297349452399</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998996</v>
+        <v>228.3679864663306</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36923,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
